--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -5744,7 +5744,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5763,12 +5763,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>missing_item_rate</t>
+          <t>item_completeness_rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>missing_value_rate</t>
+          <t>value_completeness_rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>outlier_rate</t>
+          <t>range_plausibility_rate</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5793,62 +5793,102 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>duplication_rate</t>
+          <t>rdCase_dissimilarity_rate</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>rdCase_rel_py_ipat</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>tracerCase_rel_py_ipat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>unambigous_rdCase_rel_py_ipat</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>orphaCase_rel_py_ipat</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>case_no_py_ipat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>case_no_py</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>patient_no_py</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>orphaCoding_no_py</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>rdCase_no_py</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>orphaCase_no_py</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>unambigous_rdCase_no_py</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tracerCase_no_py</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>missing_item_no_py</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>missing_value_no_py</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>orphaMissing_no_py</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>implausible_codeLink_no_py</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>outlier_no_py</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>ambigous_rdCase_no_py</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>duplicateRdCase_no_py</t>
         </is>
       </c>
     </row>
@@ -5862,16 +5902,16 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>21.43</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D2">
-        <v>3.78</v>
+        <v>96.22</v>
       </c>
       <c r="E2">
         <v>45</v>
       </c>
       <c r="F2">
-        <v>0.17</v>
+        <v>99.83</v>
       </c>
       <c r="G2">
         <v>76.34</v>
@@ -5880,40 +5920,64 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>0.32</v>
+        <v>97</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>0.19</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.75</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.9</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>997</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>950</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>92</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>100</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>90</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>75</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>19</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>518</v>
+      </c>
+      <c r="X2">
+        <v>11</v>
+      </c>
+      <c r="Y2">
+        <v>22</v>
+      </c>
+      <c r="Z2">
+        <v>8</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1877-12-01 Max Alter 105. </t>
+          <t xml:space="preserve">Implausible birthdate 1877-12-01 maximal age 105. </t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code G54.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code G54.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2030-07-09 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 2030-07-09 date in the future.</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I69.4 - 166282 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: I69.4 - 166282 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code E83.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code E83.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code OR-4956 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D48.6 - OR-4956 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Invalid Orpha code. OR-4956 Ambiguous Coding. ICD10-Orpha combination: D48.6 - OR-4956 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: D24 - 50920 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code A5237 ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - A5237 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Invalid Orpha code. A5237 Ambiguous Coding. ICD10-Orpha combination: D24 - A5237 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code C91.40 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code C91.40 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code D82.8 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code D82.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Code K83.01 ist nicht eindeutig. Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code K83.01 . Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1848-01-01 Max Alter 105. </t>
+          <t xml:space="preserve">Implausible birthdate 1848-01-01 maximal age 105. </t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.0 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.0 - 797 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 797 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.1 - 797 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.5 - 424991 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.5 - 424991 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.8 - 586 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E84.8 - 586 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.89 - 586 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E84.89 - 586 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+          <t>Implausible admission date 3020-02-21 date in the future.</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 3020-02-21 Datum liegt in der Zukunft.</t>
+          <t>Implausible admission date 3020-02-21 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2030-01-07 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 2030-01-07 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G90.2 - 274 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: G90.2 - 274 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: D24 - 50920 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: D24 - 50920 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: D24 - 50920 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.1 - 442 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.1 - 442 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: I27.0 - 769 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: I27.0 - 769 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 2040-01-18 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 2040-01-18 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Unplausibles Diagnosedatum 3020-02-26 Datum liegt in der Zukunft.</t>
+          <t>Implausible diagnosis date 3020-02-26 date in the future.</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G43.1 - 209981 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: G43.1 - 209981 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender AlphaID Code.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E03.8 - 97927 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.8 - 97927 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: K83.0 - 447764 ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: K83.0 - 447764 is implausible according to Alpha-ID-SE. </t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Missing ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>unambigous_rdCase_rel_py_ipat</t>
+          <t>unambiguous_rdCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>unambigous_rdCase_no_py</t>
+          <t>unambiguous_rdCase_no_py</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>ambigous_rdCase_no_py</t>
+          <t>ambiguous_rdCase_no_py</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -5923,10 +5923,10 @@
         <v>97</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K2">
-        <v>0.19</v>
+        <v>190</v>
       </c>
       <c r="L2">
         <v>0.75</v>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -430,7 +430,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambiguous ICD10 Code G54.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code G54.8 . Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambiguous ICD10 Code E83.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code E83.8 . Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambiguous ICD10 Code C91.40 . Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code C91.40 . Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambiguous ICD10 Code D82.8 . Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code D82.8 . Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambiguous ICD10 Code K83.01 . Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Ambiguous ICD10 Code K83.01 . Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
+          <t xml:space="preserve">Missing Orpha Code.  </t>
         </is>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <v>97</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="J2">
         <v>1000</v>
@@ -5929,10 +5929,10 @@
         <v>190</v>
       </c>
       <c r="L2">
-        <v>0.75</v>
+        <v>750</v>
       </c>
       <c r="M2">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="N2">
         <v>10000</v>
@@ -5977,7 +5977,7 @@
         <v>25</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
   <si>
     <t xml:space="preserve">PatientIdentifikator</t>
   </si>
@@ -1996,12 +1996,6 @@
   </si>
   <si>
     <t xml:space="preserve">tracerCase_rel_py_ipat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unambiguous_rdCase_rel_py_ipat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orphaCase_rel_py_ipat</t>
   </si>
   <si>
     <t xml:space="preserve">case_no_py_ipat</t>
@@ -6474,16 +6468,10 @@
       <c r="Z1" t="s">
         <v>675</v>
       </c>
-      <c r="AA1" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>677</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -6516,54 +6504,48 @@
         <v>190</v>
       </c>
       <c r="L2" t="n">
-        <v>750</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>900</v>
+        <v>997</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>950</v>
       </c>
       <c r="O2" t="n">
-        <v>997</v>
+        <v>92</v>
       </c>
       <c r="P2" t="n">
-        <v>950</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="S2" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="T2" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>19</v>
+        <v>518</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>518</v>
+        <v>22</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB2" t="n">
         <v>3</v>
       </c>
     </row>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
   <si>
     <t xml:space="preserve">PatientIdentifikator</t>
   </si>
@@ -2041,6 +2041,12 @@
   </si>
   <si>
     <t xml:space="preserve">duplicateRdCase_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orphaCase_rel_py_ipat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseCompletenessRate</t>
   </si>
   <si>
     <t xml:space="preserve">260123451-Airolo</t>
@@ -6468,10 +6474,16 @@
       <c r="Z1" t="s">
         <v>675</v>
       </c>
+      <c r="AA1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -6498,13 +6510,13 @@
         <v>97.09</v>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>10030</v>
       </c>
       <c r="K2" t="n">
-        <v>190</v>
+        <v>1910</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>997</v>
       </c>
       <c r="M2" t="n">
         <v>997</v>
@@ -6547,6 +6559,12 @@
       </c>
       <c r="Z2" t="n">
         <v>3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9030</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>62.14</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
   <si>
     <t xml:space="preserve">PatientIdentifikator</t>
   </si>
@@ -1962,7 +1962,7 @@
     <t xml:space="preserve">260123451-Airolo-F-0001053</t>
   </si>
   <si>
-    <t xml:space="preserve">Folgende mandatorische Items fehlen:  Kontakt_Klasse , Fall_Status , DiagnoseRolle</t>
+    <t xml:space="preserve">Following items are missing:  Kontakt_Klasse , Fall_Status , DiagnoseRolle</t>
   </si>
   <si>
     <t xml:space="preserve">inst_id</t>
@@ -1977,6 +1977,9 @@
     <t xml:space="preserve">value_completeness_rate</t>
   </si>
   <si>
+    <t xml:space="preserve">case_completeness_rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">orphaCoding_completeness_rate</t>
   </si>
   <si>
@@ -1992,18 +1995,21 @@
     <t xml:space="preserve">rdCase_dissimilarity_rate</t>
   </si>
   <si>
+    <t xml:space="preserve">conc_with_refValues</t>
+  </si>
+  <si>
     <t xml:space="preserve">rdCase_rel_py_ipat</t>
   </si>
   <si>
+    <t xml:space="preserve">orphaCase_rel_py_ipat</t>
+  </si>
+  <si>
     <t xml:space="preserve">tracerCase_rel_py_ipat</t>
   </si>
   <si>
     <t xml:space="preserve">case_no_py_ipat</t>
   </si>
   <si>
-    <t xml:space="preserve">case_no_py</t>
-  </si>
-  <si>
     <t xml:space="preserve">patient_no_py</t>
   </si>
   <si>
@@ -2016,9 +2022,6 @@
     <t xml:space="preserve">orphaCase_no_py</t>
   </si>
   <si>
-    <t xml:space="preserve">unambiguous_rdCase_no_py</t>
-  </si>
-  <si>
     <t xml:space="preserve">tracerCase_no_py</t>
   </si>
   <si>
@@ -2041,12 +2044,6 @@
   </si>
   <si>
     <t xml:space="preserve">duplicateRdCase_no_py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orphaCase_rel_py_ipat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caseCompletenessRate</t>
   </si>
   <si>
     <t xml:space="preserve">260123451-Airolo</t>
@@ -6477,13 +6474,10 @@
       <c r="AA1" t="s">
         <v>676</v>
       </c>
-      <c r="AB1" t="s">
-        <v>677</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -6495,76 +6489,73 @@
         <v>96.22</v>
       </c>
       <c r="E2" t="n">
+        <v>62.14</v>
+      </c>
+      <c r="F2" t="n">
         <v>45</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>99.83</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>76.34</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>75</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>97.09</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>10030</v>
       </c>
-      <c r="K2" t="n">
-        <v>1910</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>9027</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1906</v>
+      </c>
+      <c r="O2" t="n">
         <v>997</v>
       </c>
-      <c r="M2" t="n">
-        <v>997</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>950</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>92</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>90</v>
       </c>
-      <c r="R2" t="n">
-        <v>75</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>19</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>3</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>518</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>11</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>22</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>8</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>25</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9030</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>62.14</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
   <si>
     <t xml:space="preserve">PatientIdentifikator</t>
   </si>
@@ -1977,6 +1977,9 @@
     <t xml:space="preserve">value_completeness_rate</t>
   </si>
   <si>
+    <t xml:space="preserve">subj_completeness_rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">case_completeness_rate</t>
   </si>
   <si>
@@ -2029,6 +2032,9 @@
   </si>
   <si>
     <t xml:space="preserve">missing_value_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomplete_subj_no_py</t>
   </si>
   <si>
     <t xml:space="preserve">orphaMissing_no_py</t>
@@ -6474,10 +6480,16 @@
       <c r="AA1" t="s">
         <v>676</v>
       </c>
+      <c r="AB1" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -6489,72 +6501,78 @@
         <v>96.22</v>
       </c>
       <c r="E2" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="F2" t="n">
         <v>62.14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>45</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>99.83</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>76.34</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>75</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>97.09</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>10030</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>9027</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1906</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>997</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>950</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>92</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>100</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>90</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>19</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>3</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>518</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
+        <v>237</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>22</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>8</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>25</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>3</v>
       </c>
     </row>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -1977,7 +1977,7 @@
     <t xml:space="preserve">value_completeness_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">subj_completeness_rate</t>
+    <t xml:space="preserve">subject_completeness_rate</t>
   </si>
   <si>
     <t xml:space="preserve">case_completeness_rate</t>
@@ -2034,7 +2034,7 @@
     <t xml:space="preserve">missing_value_no_py</t>
   </si>
   <si>
-    <t xml:space="preserve">incomplete_subj_no_py</t>
+    <t xml:space="preserve">incomplete_subject_no_py</t>
   </si>
   <si>
     <t xml:space="preserve">orphaMissing_no_py</t>

--- a/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
   <si>
     <t xml:space="preserve">PatientIdentifikator</t>
   </si>
@@ -2014,9 +2014,6 @@
   </si>
   <si>
     <t xml:space="preserve">patient_no_py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orphaCoding_no_py</t>
   </si>
   <si>
     <t xml:space="preserve">rdCase_no_py</t>
@@ -6483,13 +6480,10 @@
       <c r="AB1" t="s">
         <v>677</v>
       </c>
-      <c r="AC1" t="s">
-        <v>678</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -6540,39 +6534,36 @@
         <v>950</v>
       </c>
       <c r="R2" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T2" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="U2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>518</v>
       </c>
       <c r="W2" t="n">
-        <v>518</v>
+        <v>237</v>
       </c>
       <c r="X2" t="n">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC2" t="n">
         <v>3</v>
       </c>
     </row>
